--- a/natmiOut/OldD7/LR-pairs_lrc2p/Jag1-Notch1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Jag1-Notch1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H2">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I2">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J2">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N2">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O2">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P2">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q2">
-        <v>1030.692965717252</v>
+        <v>1096.533197346556</v>
       </c>
       <c r="R2">
-        <v>1030.692965717252</v>
+        <v>9868.798776119009</v>
       </c>
       <c r="S2">
-        <v>0.2344435218015922</v>
+        <v>0.1851899302325851</v>
       </c>
       <c r="T2">
-        <v>0.2344435218015922</v>
+        <v>0.1851899302325851</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H3">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I3">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J3">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N3">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O3">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P3">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q3">
-        <v>138.2193966829141</v>
+        <v>144.9855829236966</v>
       </c>
       <c r="R3">
-        <v>138.2193966829141</v>
+        <v>1304.87024631327</v>
       </c>
       <c r="S3">
-        <v>0.03143966556236612</v>
+        <v>0.0244861441964025</v>
       </c>
       <c r="T3">
-        <v>0.03143966556236612</v>
+        <v>0.0244861441964025</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H4">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I4">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J4">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N4">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O4">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P4">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q4">
-        <v>149.8079615191232</v>
+        <v>173.6376850126504</v>
       </c>
       <c r="R4">
-        <v>149.8079615191232</v>
+        <v>1562.739165113854</v>
       </c>
       <c r="S4">
-        <v>0.03407562412926707</v>
+        <v>0.02932510465807403</v>
       </c>
       <c r="T4">
-        <v>0.03407562412926707</v>
+        <v>0.02932510465807403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.4833968167048</v>
+        <v>16.12468433333333</v>
       </c>
       <c r="H5">
-        <v>15.4833968167048</v>
+        <v>48.374053</v>
       </c>
       <c r="I5">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206278</v>
       </c>
       <c r="J5">
-        <v>0.3702708826726077</v>
+        <v>0.2955490655206279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N5">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O5">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P5">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q5">
-        <v>309.1156309745728</v>
+        <v>334.8272480923369</v>
       </c>
       <c r="R5">
-        <v>309.1156309745728</v>
+        <v>3013.445232831033</v>
       </c>
       <c r="S5">
-        <v>0.0703120711793824</v>
+        <v>0.05654788643356622</v>
       </c>
       <c r="T5">
-        <v>0.0703120711793824</v>
+        <v>0.05654788643356623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H6">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I6">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J6">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N6">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O6">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P6">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q6">
-        <v>973.4744995842085</v>
+        <v>998.9527982524999</v>
       </c>
       <c r="R6">
-        <v>973.4744995842085</v>
+        <v>8990.575184272499</v>
       </c>
       <c r="S6">
-        <v>0.2214284929244126</v>
+        <v>0.1687098935642699</v>
       </c>
       <c r="T6">
-        <v>0.2214284929244126</v>
+        <v>0.1687098935642699</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H7">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I7">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J7">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N7">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O7">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P7">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q7">
-        <v>130.5462077400485</v>
+        <v>132.0833278175</v>
       </c>
       <c r="R7">
-        <v>130.5462077400485</v>
+        <v>1188.7499503575</v>
       </c>
       <c r="S7">
-        <v>0.02969430637291769</v>
+        <v>0.02230712423718787</v>
       </c>
       <c r="T7">
-        <v>0.02969430637291769</v>
+        <v>0.02230712423718787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H8">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I8">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J8">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N8">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O8">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P8">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q8">
-        <v>141.4914385023223</v>
+        <v>158.1856816968333</v>
       </c>
       <c r="R8">
-        <v>141.4914385023223</v>
+        <v>1423.6711352715</v>
       </c>
       <c r="S8">
-        <v>0.03218393086070384</v>
+        <v>0.0267154660051501</v>
       </c>
       <c r="T8">
-        <v>0.03218393086070384</v>
+        <v>0.0267154660051501</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.6238428604356</v>
+        <v>14.68975</v>
       </c>
       <c r="H9">
-        <v>14.6238428604356</v>
+        <v>44.06925</v>
       </c>
       <c r="I9">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="J9">
-        <v>0.3497154576673431</v>
+        <v>0.2692481784748309</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N9">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O9">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P9">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q9">
-        <v>291.9552128380187</v>
+        <v>305.0309988082499</v>
       </c>
       <c r="R9">
-        <v>291.9552128380187</v>
+        <v>2745.27898927425</v>
       </c>
       <c r="S9">
-        <v>0.06640872750930897</v>
+        <v>0.05151569466822303</v>
       </c>
       <c r="T9">
-        <v>0.06640872750930897</v>
+        <v>0.05151569466822303</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.80796346945351</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H10">
-        <v>1.80796346945351</v>
+        <v>5.903582</v>
       </c>
       <c r="I10">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J10">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N10">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O10">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P10">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q10">
-        <v>120.3518357308415</v>
+        <v>133.8211963809933</v>
       </c>
       <c r="R10">
-        <v>120.3518357308415</v>
+        <v>1204.39076742894</v>
       </c>
       <c r="S10">
-        <v>0.0273754737468205</v>
+        <v>0.02260062721439416</v>
       </c>
       <c r="T10">
-        <v>0.0273754737468205</v>
+        <v>0.02260062721439415</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.80796346945351</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H11">
-        <v>1.80796346945351</v>
+        <v>5.903582</v>
       </c>
       <c r="I11">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J11">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N11">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O11">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P11">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q11">
-        <v>16.13958635375177</v>
+        <v>17.69407822015333</v>
       </c>
       <c r="R11">
-        <v>16.13958635375177</v>
+        <v>159.24670398138</v>
       </c>
       <c r="S11">
-        <v>0.003671143193027759</v>
+        <v>0.002988295401406334</v>
       </c>
       <c r="T11">
-        <v>0.003671143193027759</v>
+        <v>0.002988295401406334</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.80796346945351</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H12">
-        <v>1.80796346945351</v>
+        <v>5.903582</v>
       </c>
       <c r="I12">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J12">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N12">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O12">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P12">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q12">
-        <v>17.49275853782025</v>
+        <v>21.19078820545289</v>
       </c>
       <c r="R12">
-        <v>17.49275853782025</v>
+        <v>190.717093849076</v>
       </c>
       <c r="S12">
-        <v>0.003978938494818919</v>
+        <v>0.003578843393740897</v>
       </c>
       <c r="T12">
-        <v>0.003978938494818919</v>
+        <v>0.003578843393740897</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.80796346945351</v>
+        <v>1.967860666666667</v>
       </c>
       <c r="H13">
-        <v>1.80796346945351</v>
+        <v>5.903582</v>
       </c>
       <c r="I13">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="J13">
-        <v>0.04323574714252217</v>
+        <v>0.03606888476606249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N13">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O13">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P13">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q13">
-        <v>36.09477786141498</v>
+        <v>40.862404375078</v>
       </c>
       <c r="R13">
-        <v>36.09477786141498</v>
+        <v>367.761639375702</v>
       </c>
       <c r="S13">
-        <v>0.008210191707855008</v>
+        <v>0.0069011187565211</v>
       </c>
       <c r="T13">
-        <v>0.008210191707855008</v>
+        <v>0.0069011187565211</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.9012008464664</v>
+        <v>21.77610566666667</v>
       </c>
       <c r="H14">
-        <v>9.9012008464664</v>
+        <v>65.328317</v>
       </c>
       <c r="I14">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="J14">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N14">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O14">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P14">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q14">
-        <v>659.0994331164138</v>
+        <v>1480.849006331543</v>
       </c>
       <c r="R14">
-        <v>659.0994331164138</v>
+        <v>13327.64105698389</v>
       </c>
       <c r="S14">
-        <v>0.1499200998327514</v>
+        <v>0.2500957789797395</v>
       </c>
       <c r="T14">
-        <v>0.1499200998327514</v>
+        <v>0.2500957789797394</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.9012008464664</v>
+        <v>21.77610566666667</v>
       </c>
       <c r="H15">
-        <v>9.9012008464664</v>
+        <v>65.328317</v>
       </c>
       <c r="I15">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="J15">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N15">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O15">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P15">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q15">
-        <v>88.38745293658364</v>
+        <v>195.8005073850033</v>
       </c>
       <c r="R15">
-        <v>88.38745293658364</v>
+        <v>1762.20456646503</v>
       </c>
       <c r="S15">
-        <v>0.02010479011574989</v>
+        <v>0.03306811174516001</v>
       </c>
       <c r="T15">
-        <v>0.02010479011574989</v>
+        <v>0.03306811174516001</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.9012008464664</v>
+        <v>21.77610566666667</v>
       </c>
       <c r="H16">
-        <v>9.9012008464664</v>
+        <v>65.328317</v>
       </c>
       <c r="I16">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="J16">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N16">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O16">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P16">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q16">
-        <v>95.79801725421525</v>
+        <v>234.4946727877562</v>
       </c>
       <c r="R16">
-        <v>95.79801725421525</v>
+        <v>2110.452055089806</v>
       </c>
       <c r="S16">
-        <v>0.0217904121729003</v>
+        <v>0.03960304366394185</v>
       </c>
       <c r="T16">
-        <v>0.0217904121729003</v>
+        <v>0.03960304366394185</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.9012008464664</v>
+        <v>21.77610566666667</v>
       </c>
       <c r="H17">
-        <v>9.9012008464664</v>
+        <v>65.328317</v>
       </c>
       <c r="I17">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="J17">
-        <v>0.236777912517527</v>
+        <v>0.3991338712384788</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N17">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O17">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P17">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q17">
-        <v>197.6708330409374</v>
+        <v>452.1783734683929</v>
       </c>
       <c r="R17">
-        <v>197.6708330409374</v>
+        <v>4069.605361215537</v>
       </c>
       <c r="S17">
-        <v>0.04496261039612545</v>
+        <v>0.07636693684963743</v>
       </c>
       <c r="T17">
-        <v>0.04496261039612545</v>
+        <v>0.07636693684963743</v>
       </c>
     </row>
   </sheetData>
